--- a/testData/saucedemoData.xlsx
+++ b/testData/saucedemoData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Shiva's Workspace\Saucedemo_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9998FB-9223-483A-85A7-3BBDB62C2E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD03062-4087-4E80-8159-B03E151271DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4632" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{56F1A566-C268-4C41-8040-AE366D196F2C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -39,23 +39,49 @@
     <t>locked_out_user</t>
   </si>
   <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>bothcorrect</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>secret_</t>
+  </si>
+  <si>
+    <t>Raju@236</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>wrongcredentials</t>
+  </si>
+  <si>
     <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +104,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2767AF8D-4D75-47A7-80DE-73591DE86F58}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -407,49 +436,90 @@
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{C0213092-7AAC-4FEF-8243-B6437ADAE4C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/saucedemoData.xlsx
+++ b/testData/saucedemoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\Shiva's Workspace\Saucedemo_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD03062-4087-4E80-8159-B03E151271DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F39C6B5-640A-41AD-B5B1-46D7FBCEE905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4632" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{56F1A566-C268-4C41-8040-AE366D196F2C}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,18 +463,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
